--- a/Data/Input/Monthly/Fields to be added on UI by Huphin_Monthly_02-03-2023.xlsx
+++ b/Data/Input/Monthly/Fields to be added on UI by Huphin_Monthly_02-03-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\Input\Monthly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A7D5B2-FF87-4535-9E57-A55D946FDF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB93E4D-3B72-4D33-929B-0B8A41FBB872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" tabRatio="678" firstSheet="2" activeTab="2" xr2:uid="{1A73FDFA-0A4F-44AD-AEF3-68F0BEA705B7}"/>
+    <workbookView xWindow="2436" yWindow="4200" windowWidth="7500" windowHeight="6000" tabRatio="678" firstSheet="2" activeTab="2" xr2:uid="{1A73FDFA-0A4F-44AD-AEF3-68F0BEA705B7}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthlyCust (2)" sheetId="13" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="529">
   <si>
     <t>HC40T</t>
   </si>
@@ -1827,6 +1827,12 @@
   </si>
   <si>
     <t>Success</t>
+  </si>
+  <si>
+    <t>M:\2. Sales Department\Unipath\Invoices\Monthly\Invoices_02-03-2023\IN 234567 - Monthly Scenario.pdf</t>
+  </si>
+  <si>
+    <t>IN 234567</t>
   </si>
 </sst>
 </file>
@@ -1950,7 +1956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1991,6 +1997,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
@@ -2430,7 +2439,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2901,8 +2910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD80626F-4EE6-4A1B-BAC6-4FE9B121A377}">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3040,8 +3049,12 @@
       <c r="E2" s="14">
         <v>12345</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="F2" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>528</v>
+      </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14" t="s">
         <v>521</v>
@@ -3050,7 +3063,7 @@
         <v>511</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
         <v>512</v>
@@ -3059,7 +3072,7 @@
         <v>513</v>
       </c>
       <c r="N2" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="O2" t="s">
         <v>514</v>
@@ -3079,6 +3092,10 @@
       <c r="W2" t="s">
         <v>526</v>
       </c>
+      <c r="Y2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z2" s="22"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="I3" s="16"/>
@@ -4320,8 +4337,8 @@
   <dimension ref="A1:W130"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
